--- a/data/pca/factorExposure/factorExposure_2009-04-06.xlsx
+++ b/data/pca/factorExposure/factorExposure_2009-04-06.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,12 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +695,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:F104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,24 +711,36 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>-0.01696803026112476</v>
+        <v>0.01646055635260356</v>
       </c>
       <c r="C2">
-        <v>0.002001761917531753</v>
+        <v>0.001338645714615726</v>
       </c>
       <c r="D2">
-        <v>0.01001486582975861</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.01036156718787167</v>
+      </c>
+      <c r="E2">
+        <v>-0.002254610243434284</v>
+      </c>
+      <c r="F2">
+        <v>-0.01882737527452663</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -733,220 +751,316 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>-0.08571081758339896</v>
+        <v>0.08890485017939906</v>
       </c>
       <c r="C4">
-        <v>0.0199258293416711</v>
+        <v>0.01550658285536439</v>
       </c>
       <c r="D4">
-        <v>0.0821697314670376</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>0.08524373617739245</v>
+      </c>
+      <c r="E4">
+        <v>-0.03517555002966549</v>
+      </c>
+      <c r="F4">
+        <v>0.04280225251956302</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>0.0006042344093044379</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>4.262070993037505e-05</v>
       </c>
       <c r="D5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>0.0004123098132575413</v>
+      </c>
+      <c r="E5">
+        <v>-2.310914368239462e-05</v>
+      </c>
+      <c r="F5">
+        <v>-0.0004648076491154544</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>-0.160334812740438</v>
+        <v>0.1661670022094385</v>
       </c>
       <c r="C6">
-        <v>0.0365612458248954</v>
+        <v>0.03463357003773898</v>
       </c>
       <c r="D6">
-        <v>-0.02424038216332123</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>-0.01470329419415044</v>
+      </c>
+      <c r="E6">
+        <v>-0.01964263846857818</v>
+      </c>
+      <c r="F6">
+        <v>0.05595519042147403</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>-0.05512517414934776</v>
+        <v>0.05985990829402142</v>
       </c>
       <c r="C7">
-        <v>0.001651030617942028</v>
+        <v>-0.001455692740510149</v>
       </c>
       <c r="D7">
-        <v>0.04776919230881481</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>0.05276191087602447</v>
+      </c>
+      <c r="E7">
+        <v>-0.01724071369506684</v>
+      </c>
+      <c r="F7">
+        <v>0.05154492480684757</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B8">
-        <v>-0.05761098734553839</v>
+        <v>0.05477621207291467</v>
       </c>
       <c r="C8">
-        <v>-0.009753961641048074</v>
+        <v>-0.01152891183058291</v>
       </c>
       <c r="D8">
-        <v>0.03024838487534872</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>0.03241697341589687</v>
+      </c>
+      <c r="E8">
+        <v>-0.01222373608789905</v>
+      </c>
+      <c r="F8">
+        <v>-0.03377905301364856</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B9">
-        <v>-0.06687019410523017</v>
+        <v>0.06959809975080763</v>
       </c>
       <c r="C9">
-        <v>0.01566539178269595</v>
+        <v>0.01123689479619093</v>
       </c>
       <c r="D9">
-        <v>0.08563928998225806</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>0.08909337965973947</v>
+      </c>
+      <c r="E9">
+        <v>-0.03328181489903332</v>
+      </c>
+      <c r="F9">
+        <v>0.06242976476425918</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B10">
-        <v>-0.09278535912651741</v>
+        <v>0.09020793408837924</v>
       </c>
       <c r="C10">
-        <v>0.02259853471524917</v>
+        <v>0.0249640262270597</v>
       </c>
       <c r="D10">
-        <v>-0.1644269074094066</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>-0.1546925462334403</v>
+      </c>
+      <c r="E10">
+        <v>0.04185897230656522</v>
+      </c>
+      <c r="F10">
+        <v>-0.07160314319842744</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B11">
-        <v>-0.08733966762747396</v>
+        <v>0.08466111516412261</v>
       </c>
       <c r="C11">
-        <v>0.01727438543738046</v>
+        <v>0.01221948483332921</v>
       </c>
       <c r="D11">
-        <v>0.1208968025212124</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>0.1251616942586767</v>
+      </c>
+      <c r="E11">
+        <v>-0.05860062553882221</v>
+      </c>
+      <c r="F11">
+        <v>0.01453727319938512</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B12">
-        <v>-0.09231444353727569</v>
+        <v>0.08761112613823131</v>
       </c>
       <c r="C12">
-        <v>0.01526432158924802</v>
+        <v>0.009622533716130926</v>
       </c>
       <c r="D12">
-        <v>0.1263449921759851</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>0.1381895090563239</v>
+      </c>
+      <c r="E12">
+        <v>-0.06158368676182536</v>
+      </c>
+      <c r="F12">
+        <v>0.01812422757413479</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B13">
-        <v>-0.04421914039005422</v>
+        <v>0.04457954298903347</v>
       </c>
       <c r="C13">
-        <v>0.007541021727117311</v>
+        <v>0.004025907740268861</v>
       </c>
       <c r="D13">
-        <v>0.04962525190918997</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>0.05727010049255061</v>
+      </c>
+      <c r="E13">
+        <v>-0.003522639305160509</v>
+      </c>
+      <c r="F13">
+        <v>0.01534348504243542</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B14">
-        <v>-0.01853442626171184</v>
+        <v>0.0216651639105765</v>
       </c>
       <c r="C14">
-        <v>0.01474441854206819</v>
+        <v>0.01367275874530992</v>
       </c>
       <c r="D14">
-        <v>0.0329310546749268</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>0.03620355443257791</v>
+      </c>
+      <c r="E14">
+        <v>-0.02482276152963257</v>
+      </c>
+      <c r="F14">
+        <v>0.02042478332593081</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B15">
-        <v>-0.0338573777212722</v>
+        <v>0.03476979254646372</v>
       </c>
       <c r="C15">
-        <v>0.008433502596717709</v>
+        <v>0.006632937968268619</v>
       </c>
       <c r="D15">
-        <v>0.05118355171613208</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>0.05150597028473154</v>
+      </c>
+      <c r="E15">
+        <v>-0.01677228056576406</v>
+      </c>
+      <c r="F15">
+        <v>0.02848502593010526</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B16">
-        <v>-0.06875104371984821</v>
+        <v>0.06793763615549751</v>
       </c>
       <c r="C16">
-        <v>0.006225376098407466</v>
+        <v>0.001204167417755209</v>
       </c>
       <c r="D16">
-        <v>0.1222498247516089</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>0.1331676509041844</v>
+      </c>
+      <c r="E16">
+        <v>-0.07041456230088312</v>
+      </c>
+      <c r="F16">
+        <v>0.01623678941978522</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>0.002352293784938114</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>-0.001072580733824207</v>
       </c>
       <c r="D17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+        <v>0.002005028779309219</v>
+      </c>
+      <c r="E17">
+        <v>-0.004883822116500335</v>
+      </c>
+      <c r="F17">
+        <v>-0.004271043830048738</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B18">
-        <v>-0.02908098370271196</v>
+        <v>0.0462919912366415</v>
       </c>
       <c r="C18">
-        <v>-9.735809816582191e-05</v>
+        <v>-6.400384424946669e-05</v>
       </c>
       <c r="D18">
-        <v>0.02270895596491883</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>0.02222761451338835</v>
+      </c>
+      <c r="E18">
+        <v>0.004761007951012155</v>
+      </c>
+      <c r="F18">
+        <v>-0.01658584908898964</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -957,108 +1071,156 @@
       <c r="D19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B20">
-        <v>-0.06284127264920286</v>
+        <v>0.06192829889075827</v>
       </c>
       <c r="C20">
-        <v>0.005375652929130572</v>
+        <v>0.002308624941226338</v>
       </c>
       <c r="D20">
-        <v>0.08132059386407577</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>0.0850733169641756</v>
+      </c>
+      <c r="E20">
+        <v>-0.06723721368708908</v>
+      </c>
+      <c r="F20">
+        <v>0.03430189024245073</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B21">
-        <v>-0.03955198964437501</v>
+        <v>0.041974747581227</v>
       </c>
       <c r="C21">
-        <v>0.009881798269323408</v>
+        <v>0.007253182541325435</v>
       </c>
       <c r="D21">
-        <v>0.04003159188068511</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>0.03979065067899616</v>
+      </c>
+      <c r="E21">
+        <v>-0.001156948688999662</v>
+      </c>
+      <c r="F21">
+        <v>-0.01742735055714605</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B22">
-        <v>-0.04537220353447922</v>
+        <v>0.04432639474151114</v>
       </c>
       <c r="C22">
-        <v>0.003875965843703462</v>
+        <v>0.002541788575575039</v>
       </c>
       <c r="D22">
-        <v>0.001620486010261481</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>0.01154388305864748</v>
+      </c>
+      <c r="E22">
+        <v>-0.03528735109241372</v>
+      </c>
+      <c r="F22">
+        <v>-0.1017758363652592</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B23">
-        <v>-0.04538086651273116</v>
+        <v>0.04433379365524875</v>
       </c>
       <c r="C23">
-        <v>0.003878290419871044</v>
+        <v>0.002543993480717498</v>
       </c>
       <c r="D23">
-        <v>0.001611875638031319</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>0.01153720539732845</v>
+      </c>
+      <c r="E23">
+        <v>-0.03529431098049128</v>
+      </c>
+      <c r="F23">
+        <v>-0.1018170244077784</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B24">
-        <v>-0.07657405723904978</v>
+        <v>0.07442645333736703</v>
       </c>
       <c r="C24">
-        <v>0.007174177279942928</v>
+        <v>0.002352527540418375</v>
       </c>
       <c r="D24">
-        <v>0.124504514010634</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>0.1272535609251862</v>
+      </c>
+      <c r="E24">
+        <v>-0.05496348852424984</v>
+      </c>
+      <c r="F24">
+        <v>0.02593643089681085</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B25">
-        <v>-0.08134064948426081</v>
+        <v>0.07891368594863614</v>
       </c>
       <c r="C25">
-        <v>0.009726502121993436</v>
+        <v>0.005288841053407863</v>
       </c>
       <c r="D25">
-        <v>0.1118222985759075</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>0.1150139476896286</v>
+      </c>
+      <c r="E25">
+        <v>-0.04360344083286591</v>
+      </c>
+      <c r="F25">
+        <v>0.02151461160213829</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B26">
-        <v>-0.05645451806609516</v>
+        <v>0.06169941231820744</v>
       </c>
       <c r="C26">
-        <v>0.01907518765619481</v>
+        <v>0.01620267517669362</v>
       </c>
       <c r="D26">
-        <v>0.04908074912968682</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>0.05578925463051339</v>
+      </c>
+      <c r="E26">
+        <v>-0.03493771819737618</v>
+      </c>
+      <c r="F26">
+        <v>-0.008524013917316759</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,150 +1231,216 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B28">
-        <v>-0.1493691390391328</v>
+        <v>0.1543428228600005</v>
       </c>
       <c r="C28">
-        <v>0.02610830959417875</v>
+        <v>0.03080486482769711</v>
       </c>
       <c r="D28">
-        <v>-0.2478210907371857</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>-0.2459040425456201</v>
+      </c>
+      <c r="E28">
+        <v>0.06314085240704762</v>
+      </c>
+      <c r="F28">
+        <v>0.01784280232102238</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B29">
-        <v>-0.02564644135605511</v>
+        <v>0.02798061398248504</v>
       </c>
       <c r="C29">
-        <v>0.009979901648569512</v>
+        <v>0.009113543250124395</v>
       </c>
       <c r="D29">
-        <v>0.03245386029128152</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>0.03434412522565231</v>
+      </c>
+      <c r="E29">
+        <v>-0.01665076571011108</v>
+      </c>
+      <c r="F29">
+        <v>-0.01863302805224424</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B30">
-        <v>-0.05213134284331789</v>
+        <v>0.0512590917311978</v>
       </c>
       <c r="C30">
-        <v>0.006115638707746694</v>
+        <v>0.002193423943788568</v>
       </c>
       <c r="D30">
-        <v>0.08184623792220663</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>0.08653492393350624</v>
+      </c>
+      <c r="E30">
+        <v>-0.02093297311718004</v>
+      </c>
+      <c r="F30">
+        <v>0.110319076494504</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B31">
-        <v>-0.05133739003374797</v>
+        <v>0.05188263411330734</v>
       </c>
       <c r="C31">
-        <v>0.01900395978984446</v>
+        <v>0.01697966081659969</v>
       </c>
       <c r="D31">
-        <v>0.02729335661102134</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>0.02976608785964523</v>
+      </c>
+      <c r="E31">
+        <v>-0.03125972612352661</v>
+      </c>
+      <c r="F31">
+        <v>-0.01042972462774196</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B32">
-        <v>-0.04483611704674063</v>
+        <v>0.04990915215112795</v>
       </c>
       <c r="C32">
-        <v>0.001867009434338655</v>
+        <v>-0.001074432751475889</v>
       </c>
       <c r="D32">
-        <v>0.03304118540067685</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>0.03709718467107962</v>
+      </c>
+      <c r="E32">
+        <v>-0.03428776161240839</v>
+      </c>
+      <c r="F32">
+        <v>-0.00164044791130435</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B33">
-        <v>-0.08625871370176483</v>
+        <v>0.08776365775606609</v>
       </c>
       <c r="C33">
-        <v>0.01370746977696453</v>
+        <v>0.008284042200739253</v>
       </c>
       <c r="D33">
-        <v>0.09580339771003878</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>0.106925698057453</v>
+      </c>
+      <c r="E33">
+        <v>-0.05999252003060605</v>
+      </c>
+      <c r="F33">
+        <v>0.02382184923395724</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B34">
-        <v>-0.06427387708480527</v>
+        <v>0.06409599630794834</v>
       </c>
       <c r="C34">
-        <v>0.01533049090511245</v>
+        <v>0.0107121039170032</v>
       </c>
       <c r="D34">
-        <v>0.1022299777126303</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>0.1133408803952338</v>
+      </c>
+      <c r="E34">
+        <v>-0.04508123396379599</v>
+      </c>
+      <c r="F34">
+        <v>0.03941989662194602</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B35">
-        <v>-0.02729846085439601</v>
+        <v>0.02851482693313922</v>
       </c>
       <c r="C35">
-        <v>0.005252991329445693</v>
+        <v>0.00456660958522452</v>
       </c>
       <c r="D35">
-        <v>0.009483141557650499</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>0.01270134432267939</v>
+      </c>
+      <c r="E35">
+        <v>-0.01940632644242567</v>
+      </c>
+      <c r="F35">
+        <v>-0.002423368318349812</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B36">
-        <v>-0.02295497727895195</v>
+        <v>0.02774843513885133</v>
       </c>
       <c r="C36">
-        <v>0.008380022908884861</v>
+        <v>0.007447199129929642</v>
       </c>
       <c r="D36">
-        <v>0.04068173278496939</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>0.04366771355199949</v>
+      </c>
+      <c r="E36">
+        <v>-0.02492416503433208</v>
+      </c>
+      <c r="F36">
+        <v>0.01805334248701122</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>0.003075363743145604</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>-0.0008610735103274045</v>
       </c>
       <c r="D37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
+        <v>0.003089959051288834</v>
+      </c>
+      <c r="E37">
+        <v>-0.001074317878400311</v>
+      </c>
+      <c r="F37">
+        <v>-0.001522423420420975</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -1223,52 +1451,76 @@
       <c r="D38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:4">
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B39">
-        <v>-0.101502588579651</v>
+        <v>0.0930047818540652</v>
       </c>
       <c r="C39">
-        <v>0.02186770869978056</v>
+        <v>0.01583891233757404</v>
       </c>
       <c r="D39">
-        <v>0.1565889679949507</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>0.1545956349872263</v>
+      </c>
+      <c r="E39">
+        <v>-0.07401734202119242</v>
+      </c>
+      <c r="F39">
+        <v>0.004011125008540129</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B40">
-        <v>-0.04282102284647808</v>
+        <v>0.0481936510898078</v>
       </c>
       <c r="C40">
-        <v>0.01179770655178199</v>
+        <v>0.01024877815048702</v>
       </c>
       <c r="D40">
-        <v>0.03287859567300084</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>0.03958753574941538</v>
+      </c>
+      <c r="E40">
+        <v>-0.00421780828799792</v>
+      </c>
+      <c r="F40">
+        <v>-0.0234256028592893</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B41">
-        <v>-0.0262685944279545</v>
+        <v>0.02847905693014181</v>
       </c>
       <c r="C41">
-        <v>0.008421221264465654</v>
+        <v>0.00794393485095576</v>
       </c>
       <c r="D41">
-        <v>0.01325586479446605</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>0.01464256070208593</v>
+      </c>
+      <c r="E41">
+        <v>-0.01197016892131664</v>
+      </c>
+      <c r="F41">
+        <v>-0.01089175773576156</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,122 +1531,176 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B43">
-        <v>-0.04045797868604174</v>
+        <v>0.03937422726243714</v>
       </c>
       <c r="C43">
-        <v>0.009171075290827819</v>
+        <v>0.00821764030062376</v>
       </c>
       <c r="D43">
-        <v>0.02305634039639138</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>0.02365827705096442</v>
+      </c>
+      <c r="E43">
+        <v>-0.02853963646710955</v>
+      </c>
+      <c r="F43">
+        <v>-0.02441081436932833</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B44">
-        <v>-0.0622134365990806</v>
+        <v>0.06953783679797849</v>
       </c>
       <c r="C44">
-        <v>0.02237976579444815</v>
+        <v>0.01879892746507351</v>
       </c>
       <c r="D44">
-        <v>0.0770149562674339</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>0.08625804462146157</v>
+      </c>
+      <c r="E44">
+        <v>-0.07712265416714775</v>
+      </c>
+      <c r="F44">
+        <v>0.2111622770798612</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B45">
-        <v>0</v>
+        <v>0.000116290587808762</v>
       </c>
       <c r="C45">
-        <v>0</v>
+        <v>6.052658909751419e-05</v>
       </c>
       <c r="D45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4">
+        <v>3.493295305537305e-05</v>
+      </c>
+      <c r="E45">
+        <v>0.0003417807316914542</v>
+      </c>
+      <c r="F45">
+        <v>-8.843850428447191e-05</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B46">
-        <v>-0.02273294359241041</v>
+        <v>0.02522301547989857</v>
       </c>
       <c r="C46">
-        <v>0.005165059337642814</v>
+        <v>0.004239488860844078</v>
       </c>
       <c r="D46">
-        <v>0.0152035049427917</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>0.01814946030646561</v>
+      </c>
+      <c r="E46">
+        <v>-0.03510254413547381</v>
+      </c>
+      <c r="F46">
+        <v>-0.02466138638661676</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B47">
-        <v>-0.05419616362280553</v>
+        <v>0.05311346609110697</v>
       </c>
       <c r="C47">
-        <v>0.007463385960587191</v>
+        <v>0.005821478493178454</v>
       </c>
       <c r="D47">
-        <v>0.01158930302396404</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>0.01384841398199787</v>
+      </c>
+      <c r="E47">
+        <v>-0.02420769491625359</v>
+      </c>
+      <c r="F47">
+        <v>-0.04509022582312801</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B48">
-        <v>-0.04914333900526289</v>
+        <v>0.05301703707449316</v>
       </c>
       <c r="C48">
-        <v>0.006381362334234987</v>
+        <v>0.003764844341907626</v>
       </c>
       <c r="D48">
-        <v>0.05763754003330488</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>0.05913459294081266</v>
+      </c>
+      <c r="E48">
+        <v>-0.007887587033471442</v>
+      </c>
+      <c r="F48">
+        <v>0.01425832149166702</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B49">
-        <v>-0.1953503983928322</v>
+        <v>0.1976124466888682</v>
       </c>
       <c r="C49">
-        <v>0.02825523297421301</v>
+        <v>0.02439201357144723</v>
       </c>
       <c r="D49">
-        <v>-0.01024688413610065</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>-0.00450830129206054</v>
+      </c>
+      <c r="E49">
+        <v>-0.01775588374236759</v>
+      </c>
+      <c r="F49">
+        <v>0.06068069270730442</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B50">
-        <v>-0.04949347654320654</v>
+        <v>0.05232326608831813</v>
       </c>
       <c r="C50">
-        <v>0.01472282283527962</v>
+        <v>0.0132055431435663</v>
       </c>
       <c r="D50">
-        <v>0.02603850701277922</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>0.0282723604879385</v>
+      </c>
+      <c r="E50">
+        <v>-0.03392486649118067</v>
+      </c>
+      <c r="F50">
+        <v>0.006063282035259468</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -1405,80 +1711,116 @@
       <c r="D51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:4">
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B52">
-        <v>-0.1515958435214157</v>
+        <v>0.1451560629443248</v>
       </c>
       <c r="C52">
-        <v>0.02515173517842385</v>
+        <v>0.02129935110944742</v>
       </c>
       <c r="D52">
-        <v>0.04419969659442242</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
+        <v>0.04632533862937329</v>
+      </c>
+      <c r="E52">
+        <v>-0.03601259605090684</v>
+      </c>
+      <c r="F52">
+        <v>0.03546434780772868</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B53">
-        <v>-0.1746600996240522</v>
+        <v>0.1674434559375095</v>
       </c>
       <c r="C53">
-        <v>0.02798023585290696</v>
+        <v>0.0253657216712047</v>
       </c>
       <c r="D53">
-        <v>0.005663544958391075</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>0.007969911353776338</v>
+      </c>
+      <c r="E53">
+        <v>-0.04416502769504198</v>
+      </c>
+      <c r="F53">
+        <v>0.08248707376776845</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B54">
-        <v>-0.01452300933646136</v>
+        <v>0.01806974388984084</v>
       </c>
       <c r="C54">
-        <v>0.01191158612076236</v>
+        <v>0.01128423732734325</v>
       </c>
       <c r="D54">
-        <v>0.028900920202851</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>0.02867080864974969</v>
+      </c>
+      <c r="E54">
+        <v>-0.02204650472353899</v>
+      </c>
+      <c r="F54">
+        <v>-0.003240933561757658</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B55">
-        <v>-0.1199147504079852</v>
+        <v>0.1171753836575836</v>
       </c>
       <c r="C55">
-        <v>0.02463446278180765</v>
+        <v>0.02229706153833019</v>
       </c>
       <c r="D55">
-        <v>0.006287860466842795</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>0.01382645343286099</v>
+      </c>
+      <c r="E55">
+        <v>-0.04426602341737366</v>
+      </c>
+      <c r="F55">
+        <v>0.02682560107551962</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B56">
-        <v>-0.1806086388340671</v>
+        <v>0.1748272052687404</v>
       </c>
       <c r="C56">
-        <v>0.02633013627595419</v>
+        <v>0.0239943186396197</v>
       </c>
       <c r="D56">
-        <v>-0.002465965311404573</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.0008073084802196951</v>
+      </c>
+      <c r="E56">
+        <v>-0.04218383030995498</v>
+      </c>
+      <c r="F56">
+        <v>0.04273028532882125</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,262 +1831,376 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B58">
-        <v>-0.04477078338177174</v>
+        <v>0.04401614248756089</v>
       </c>
       <c r="C58">
-        <v>0.004298595340109389</v>
+        <v>0.0003074403607667939</v>
       </c>
       <c r="D58">
-        <v>0.07296434545099882</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>0.08149567278699828</v>
+      </c>
+      <c r="E58">
+        <v>-0.04406376595341947</v>
+      </c>
+      <c r="F58">
+        <v>-0.04783036368321501</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B59">
-        <v>-0.1700537897994467</v>
+        <v>0.1748654089618105</v>
       </c>
       <c r="C59">
-        <v>0.02629945223484628</v>
+        <v>0.03007618403270366</v>
       </c>
       <c r="D59">
-        <v>-0.2128092953424037</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>-0.2113991001469349</v>
+      </c>
+      <c r="E59">
+        <v>0.05835194954236483</v>
+      </c>
+      <c r="F59">
+        <v>-0.06418714017442959</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B60">
-        <v>-0.2253439916204756</v>
+        <v>0.2201111050983932</v>
       </c>
       <c r="C60">
-        <v>0.007997705202914401</v>
+        <v>0.00340698502382218</v>
       </c>
       <c r="D60">
-        <v>0.02196542507510293</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>0.02234112265927675</v>
+      </c>
+      <c r="E60">
+        <v>0.01554908231134179</v>
+      </c>
+      <c r="F60">
+        <v>-0.006871535846420212</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B61">
-        <v>-0.07372673945750799</v>
+        <v>0.07000767190956132</v>
       </c>
       <c r="C61">
-        <v>0.01551568169975543</v>
+        <v>0.01054142040741786</v>
       </c>
       <c r="D61">
-        <v>0.116292274537225</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>0.1190290224552935</v>
+      </c>
+      <c r="E61">
+        <v>-0.04303204395629588</v>
+      </c>
+      <c r="F61">
+        <v>-0.003481566775482214</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B62">
-        <v>-0.171306507520379</v>
+        <v>0.1671370033106857</v>
       </c>
       <c r="C62">
-        <v>0.02907900178281113</v>
+        <v>0.02609891094142314</v>
       </c>
       <c r="D62">
-        <v>0.00288641865259007</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>0.008125633678756381</v>
+      </c>
+      <c r="E62">
+        <v>-0.04818206229659507</v>
+      </c>
+      <c r="F62">
+        <v>0.02448467361651113</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B63">
-        <v>-0.04292241254759101</v>
+        <v>0.0479026994037867</v>
       </c>
       <c r="C63">
-        <v>0.006018086980823264</v>
+        <v>0.003476492878791072</v>
       </c>
       <c r="D63">
-        <v>0.06254008186662242</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>0.07039581582958775</v>
+      </c>
+      <c r="E63">
+        <v>-0.03086752438007224</v>
+      </c>
+      <c r="F63">
+        <v>-0.004823388146050617</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B64">
-        <v>-0.1141169557985715</v>
+        <v>0.1112224126186717</v>
       </c>
       <c r="C64">
-        <v>0.01931279129853148</v>
+        <v>0.0155219542727138</v>
       </c>
       <c r="D64">
-        <v>0.04687552651694654</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>0.05034293592143782</v>
+      </c>
+      <c r="E64">
+        <v>-0.03442956497980845</v>
+      </c>
+      <c r="F64">
+        <v>0.02100214119396626</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B65">
-        <v>-0.1505163950722842</v>
+        <v>0.1560305394095358</v>
       </c>
       <c r="C65">
-        <v>0.04228139965784727</v>
+        <v>0.04096027583321945</v>
       </c>
       <c r="D65">
-        <v>-0.04747952681991109</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>-0.03676380375339393</v>
+      </c>
+      <c r="E65">
+        <v>-0.01296507642264693</v>
+      </c>
+      <c r="F65">
+        <v>0.05391317858778179</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B66">
-        <v>-0.1234912467469229</v>
+        <v>0.1126965555234593</v>
       </c>
       <c r="C66">
-        <v>0.02085852301052527</v>
+        <v>0.0142072644027483</v>
       </c>
       <c r="D66">
-        <v>0.1410429164854266</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>0.1441859260025496</v>
+      </c>
+      <c r="E66">
+        <v>-0.0705186919441958</v>
+      </c>
+      <c r="F66">
+        <v>0.009270087747582808</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B67">
-        <v>-0.06002800550877161</v>
+        <v>0.05300542505558674</v>
       </c>
       <c r="C67">
-        <v>0.006491640467245382</v>
+        <v>0.003920671206681906</v>
       </c>
       <c r="D67">
-        <v>0.05149314305561585</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>0.05458057359087132</v>
+      </c>
+      <c r="E67">
+        <v>-0.02132727548271721</v>
+      </c>
+      <c r="F67">
+        <v>-0.08320002919629295</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B68">
-        <v>-0.1199176690803461</v>
+        <v>0.1264698817797106</v>
       </c>
       <c r="C68">
-        <v>0.03461406421444131</v>
+        <v>0.0403566260220361</v>
       </c>
       <c r="D68">
-        <v>-0.2525546369762065</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>-0.251659807022037</v>
+      </c>
+      <c r="E68">
+        <v>0.0890910368002292</v>
+      </c>
+      <c r="F68">
+        <v>0.03070716240509682</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B69">
-        <v>-0.03966435337123461</v>
+        <v>0.03901098289200866</v>
       </c>
       <c r="C69">
-        <v>0.003484939019893202</v>
+        <v>0.002429752709111019</v>
       </c>
       <c r="D69">
-        <v>0.009546589877526259</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>0.01016415466298973</v>
+      </c>
+      <c r="E69">
+        <v>-0.03080281188297009</v>
+      </c>
+      <c r="F69">
+        <v>-0.02127984692145191</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B70">
-        <v>-0.06884226829814256</v>
+        <v>0.07003377877163329</v>
       </c>
       <c r="C70">
-        <v>-0.02283734560172362</v>
+        <v>-0.02465093803547766</v>
       </c>
       <c r="D70">
-        <v>0.0384679277715566</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>0.03682141284849916</v>
+      </c>
+      <c r="E70">
+        <v>0.04444863575228118</v>
+      </c>
+      <c r="F70">
+        <v>-0.3547654499271551</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B71">
-        <v>-0.1396326577106513</v>
+        <v>0.1470917516987782</v>
       </c>
       <c r="C71">
-        <v>0.04018950488204211</v>
+        <v>0.04572245077514166</v>
       </c>
       <c r="D71">
-        <v>-0.2653326358240324</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>-0.2602468789314511</v>
+      </c>
+      <c r="E71">
+        <v>0.09862691780005152</v>
+      </c>
+      <c r="F71">
+        <v>0.03135317283329887</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B72">
-        <v>-0.1382882468799868</v>
+        <v>0.1444834778550026</v>
       </c>
       <c r="C72">
-        <v>0.03277411061033752</v>
+        <v>0.03189711313319611</v>
       </c>
       <c r="D72">
-        <v>0.004944624832413157</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.002274541473400751</v>
+      </c>
+      <c r="E72">
+        <v>-0.04759753642215758</v>
+      </c>
+      <c r="F72">
+        <v>0.02962770723816101</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B73">
-        <v>-0.1961748453472495</v>
+        <v>0.2003562909985756</v>
       </c>
       <c r="C73">
-        <v>0.02179035590451871</v>
+        <v>0.01654240558697079</v>
       </c>
       <c r="D73">
-        <v>0.009572842154376239</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>0.01682396237663741</v>
+      </c>
+      <c r="E73">
+        <v>-0.0630146076873635</v>
+      </c>
+      <c r="F73">
+        <v>0.01805768744650411</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B74">
-        <v>-0.08857621297302472</v>
+        <v>0.08849074202849336</v>
       </c>
       <c r="C74">
-        <v>0.01661073716696663</v>
+        <v>0.01458101741272017</v>
       </c>
       <c r="D74">
-        <v>0.01247449781889271</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>0.0175531119365835</v>
+      </c>
+      <c r="E74">
+        <v>-0.05017311481032246</v>
+      </c>
+      <c r="F74">
+        <v>0.04798781747498852</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B75">
-        <v>-0.1298314547703967</v>
+        <v>0.1223043296421537</v>
       </c>
       <c r="C75">
-        <v>0.03494827885436164</v>
+        <v>0.03158067086223084</v>
       </c>
       <c r="D75">
-        <v>0.02778053447347057</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>0.03270459811462782</v>
+      </c>
+      <c r="E75">
+        <v>-0.06409716019212694</v>
+      </c>
+      <c r="F75">
+        <v>0.01082232977719048</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -1755,360 +2211,516 @@
       <c r="D76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:4">
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B77">
-        <v>-0.07827507303705648</v>
+        <v>0.09149694925644195</v>
       </c>
       <c r="C77">
-        <v>0.01484828836659998</v>
+        <v>0.01053910650947112</v>
       </c>
       <c r="D77">
-        <v>0.1236891289159903</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>0.1235523359512131</v>
+      </c>
+      <c r="E77">
+        <v>-0.05517912030887319</v>
+      </c>
+      <c r="F77">
+        <v>0.04985963926814282</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B78">
-        <v>-0.09667553042088051</v>
+        <v>0.09824469819858249</v>
       </c>
       <c r="C78">
-        <v>0.04405325702096127</v>
+        <v>0.04045313201841937</v>
       </c>
       <c r="D78">
-        <v>0.1181111178074171</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>0.1159922871247064</v>
+      </c>
+      <c r="E78">
+        <v>-0.07855609962336857</v>
+      </c>
+      <c r="F78">
+        <v>0.0387022669816315</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B79">
-        <v>-0.1689309001755413</v>
+        <v>0.1645126697802675</v>
       </c>
       <c r="C79">
-        <v>0.03262107953648938</v>
+        <v>0.02918964989843063</v>
       </c>
       <c r="D79">
-        <v>0.01426783479251435</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>0.01955332380856139</v>
+      </c>
+      <c r="E79">
+        <v>-0.05046003189815241</v>
+      </c>
+      <c r="F79">
+        <v>0.006795700134327539</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B80">
-        <v>-0.07891431702719412</v>
+        <v>0.07730393284667564</v>
       </c>
       <c r="C80">
-        <v>0.00371377543326025</v>
+        <v>0.001297743565259408</v>
       </c>
       <c r="D80">
-        <v>0.04861912500068549</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>0.04980064550826009</v>
+      </c>
+      <c r="E80">
+        <v>-0.041624356953318</v>
+      </c>
+      <c r="F80">
+        <v>-0.05050663052352262</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B81">
-        <v>-0.117749031025828</v>
+        <v>0.1116652349185456</v>
       </c>
       <c r="C81">
-        <v>0.0367770055841472</v>
+        <v>0.03490881703685809</v>
       </c>
       <c r="D81">
-        <v>0.005549733121064639</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>0.01100475314822227</v>
+      </c>
+      <c r="E81">
+        <v>-0.05719845884542072</v>
+      </c>
+      <c r="F81">
+        <v>0.001017506797369335</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B82">
-        <v>-0.1634815770313611</v>
+        <v>0.1616253121403785</v>
       </c>
       <c r="C82">
-        <v>0.03231117699105327</v>
+        <v>0.02980149091092733</v>
       </c>
       <c r="D82">
-        <v>0.005583142042514691</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>0.005608324132553528</v>
+      </c>
+      <c r="E82">
+        <v>-0.04383711250831956</v>
+      </c>
+      <c r="F82">
+        <v>0.08160644513778634</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B83">
-        <v>-0.0546197150002286</v>
+        <v>0.0506593959366792</v>
       </c>
       <c r="C83">
-        <v>0.005378514536947137</v>
+        <v>0.003425888404025463</v>
       </c>
       <c r="D83">
-        <v>0.03677083753403029</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>0.03688987787872003</v>
+      </c>
+      <c r="E83">
+        <v>0.009792083176139098</v>
+      </c>
+      <c r="F83">
+        <v>-0.02696184351915798</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B84">
-        <v>-0.05591657474320048</v>
+        <v>0.05238326831051527</v>
       </c>
       <c r="C84">
-        <v>0.01373967000256243</v>
+        <v>0.01087778418139914</v>
       </c>
       <c r="D84">
-        <v>0.07346620181532827</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>0.07421236667377228</v>
+      </c>
+      <c r="E84">
+        <v>-0.02255414374302074</v>
+      </c>
+      <c r="F84">
+        <v>0.003127170066364451</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B85">
-        <v>-0.1401090915572219</v>
+        <v>0.1345905489844349</v>
       </c>
       <c r="C85">
-        <v>0.035711823245684</v>
+        <v>0.03314993738801044</v>
       </c>
       <c r="D85">
-        <v>0.008954221224765337</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>0.01283047234819328</v>
+      </c>
+      <c r="E85">
+        <v>-0.05024860771350478</v>
+      </c>
+      <c r="F85">
+        <v>0.05305313088382447</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B86">
-        <v>-0.08147083924833695</v>
+        <v>0.08043149359857214</v>
       </c>
       <c r="C86">
-        <v>-0.004832725869574895</v>
+        <v>-0.007119048522298236</v>
       </c>
       <c r="D86">
-        <v>0.02701567592922822</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>0.05256265278083189</v>
+      </c>
+      <c r="E86">
+        <v>-0.06114664610367444</v>
+      </c>
+      <c r="F86">
+        <v>-0.8128642392000056</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B87">
-        <v>-0.08855285117568351</v>
+        <v>0.08896880825046634</v>
       </c>
       <c r="C87">
-        <v>0.02669239363299427</v>
+        <v>0.02194405242079952</v>
       </c>
       <c r="D87">
-        <v>0.08632266040140701</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>0.08946943513706752</v>
+      </c>
+      <c r="E87">
+        <v>0.05600785311333571</v>
+      </c>
+      <c r="F87">
+        <v>0.08745770236673801</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B88">
-        <v>-0.06191530937522741</v>
+        <v>0.06098729841423856</v>
       </c>
       <c r="C88">
-        <v>0.006938953654013783</v>
+        <v>0.004276754858020119</v>
       </c>
       <c r="D88">
-        <v>0.05566375936416346</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>0.05474403707406771</v>
+      </c>
+      <c r="E88">
+        <v>-0.03325205247387469</v>
+      </c>
+      <c r="F88">
+        <v>0.001533184413104219</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B89">
-        <v>-0.1289542352993365</v>
+        <v>0.1341963056083494</v>
       </c>
       <c r="C89">
-        <v>0.01505491037856359</v>
+        <v>0.0203727192552161</v>
       </c>
       <c r="D89">
-        <v>-0.2294869505027626</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>-0.2342032774311277</v>
+      </c>
+      <c r="E89">
+        <v>0.09135508835358834</v>
+      </c>
+      <c r="F89">
+        <v>0.01933753234746995</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B90">
-        <v>-0.1508184735614898</v>
+        <v>0.1621894747809823</v>
       </c>
       <c r="C90">
-        <v>0.03672959411876747</v>
+        <v>0.04300548238642937</v>
       </c>
       <c r="D90">
-        <v>-0.2556517733143731</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>-0.2590570417955127</v>
+      </c>
+      <c r="E90">
+        <v>0.1184623213478803</v>
+      </c>
+      <c r="F90">
+        <v>0.02455383631818414</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B91">
-        <v>-0.1259897779991731</v>
+        <v>0.121358142656925</v>
       </c>
       <c r="C91">
-        <v>0.02653726085148414</v>
+        <v>0.02505427404835172</v>
       </c>
       <c r="D91">
-        <v>-0.0188378762384989</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>-0.01434597397087023</v>
+      </c>
+      <c r="E91">
+        <v>-0.05709271998443378</v>
+      </c>
+      <c r="F91">
+        <v>-0.02590487683706467</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B92">
-        <v>-0.1514619782003868</v>
+        <v>0.1550683178169754</v>
       </c>
       <c r="C92">
-        <v>0.02773809926427924</v>
+        <v>0.0334539516999095</v>
       </c>
       <c r="D92">
-        <v>-0.281039772692173</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>-0.2845145774437808</v>
+      </c>
+      <c r="E92">
+        <v>0.1069847894824027</v>
+      </c>
+      <c r="F92">
+        <v>0.01085405937358742</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B93">
-        <v>-0.1553012512216566</v>
+        <v>0.1647040931184628</v>
       </c>
       <c r="C93">
-        <v>0.03262773409575941</v>
+        <v>0.03766231451628269</v>
       </c>
       <c r="D93">
-        <v>-0.2482136741159619</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>-0.251928388360689</v>
+      </c>
+      <c r="E93">
+        <v>0.07030868986666876</v>
+      </c>
+      <c r="F93">
+        <v>0.02144187698941535</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B94">
-        <v>-0.1291001505540756</v>
+        <v>0.1217197670285359</v>
       </c>
       <c r="C94">
-        <v>0.0310320399665939</v>
+        <v>0.02723766348813531</v>
       </c>
       <c r="D94">
-        <v>0.04055274913659863</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>0.04419365542228588</v>
+      </c>
+      <c r="E94">
+        <v>-0.06621981936381352</v>
+      </c>
+      <c r="F94">
+        <v>0.01438983496147395</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B95">
-        <v>-0.1259589963257816</v>
+        <v>0.1288912693395757</v>
       </c>
       <c r="C95">
-        <v>0.01299857918352535</v>
+        <v>0.007336843212284097</v>
       </c>
       <c r="D95">
-        <v>0.09723548741899467</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>0.1082586767384123</v>
+      </c>
+      <c r="E95">
+        <v>-0.06530349070857515</v>
+      </c>
+      <c r="F95">
+        <v>-0.02363646060296297</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B96">
-        <v>-0.1589095641868472</v>
+        <v>0.1437079762580277</v>
       </c>
       <c r="C96">
-        <v>-0.981347605069411</v>
+        <v>-0.9826022113106819</v>
       </c>
       <c r="D96">
-        <v>-0.03503046595865249</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4">
+        <v>-0.05814412903776701</v>
+      </c>
+      <c r="E96">
+        <v>-0.0525965586991703</v>
+      </c>
+      <c r="F96">
+        <v>0.0425476140765406</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B97">
-        <v>-0.1903861205382195</v>
+        <v>0.1935769320908984</v>
       </c>
       <c r="C97">
-        <v>0.003073428754191803</v>
+        <v>0.0004127785526329248</v>
       </c>
       <c r="D97">
-        <v>-0.01923643702317171</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>-0.02486668714203293</v>
+      </c>
+      <c r="E97">
+        <v>-0.01568851526806059</v>
+      </c>
+      <c r="F97">
+        <v>-0.1746040688241082</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B98">
-        <v>-0.1949221291212517</v>
+        <v>0.2009876828126612</v>
       </c>
       <c r="C98">
-        <v>0.01651691300408642</v>
+        <v>0.01146094397430594</v>
       </c>
       <c r="D98">
-        <v>0.01245608740133029</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>0.01467675445880566</v>
+      </c>
+      <c r="E98">
+        <v>0.1007639466352997</v>
+      </c>
+      <c r="F98">
+        <v>-0.08408387655643831</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B99">
-        <v>-0.05778664191278442</v>
+        <v>0.05742868875390795</v>
       </c>
       <c r="C99">
-        <v>0.0001245913692168226</v>
+        <v>-0.002241840830306364</v>
       </c>
       <c r="D99">
-        <v>0.04449885543295096</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
+        <v>0.04953339932321635</v>
+      </c>
+      <c r="E99">
+        <v>-0.03128259376195108</v>
+      </c>
+      <c r="F99">
+        <v>-0.006275529661816861</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B100">
-        <v>-0.1396193691821127</v>
+        <v>0.1299351920860092</v>
       </c>
       <c r="C100">
-        <v>-0.03662673326744952</v>
+        <v>-0.04609922865162242</v>
       </c>
       <c r="D100">
-        <v>0.4183901130332635</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4">
+        <v>0.3766770688637061</v>
+      </c>
+      <c r="E100">
+        <v>0.8866999955272147</v>
+      </c>
+      <c r="F100">
+        <v>0.009611057199918715</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B101">
-        <v>-0.02565484585796316</v>
+        <v>0.02803942623262849</v>
       </c>
       <c r="C101">
-        <v>0.009992219875661172</v>
+        <v>0.009146676493380987</v>
       </c>
       <c r="D101">
-        <v>0.03197146554307783</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>0.03388133537477738</v>
+      </c>
+      <c r="E101">
+        <v>-0.01603250616073191</v>
+      </c>
+      <c r="F101">
+        <v>-0.02105258721146779</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2119,10 +2731,16 @@
       <c r="D102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:4">
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +2751,16 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +2769,12 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
         <v>0</v>
       </c>
     </row>
